--- a/modules/member-manager/excel-report-template.xlsx
+++ b/modules/member-manager/excel-report-template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webroot\www\vinades\hoinghivietbi\modules\member-manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8777F492-EFDF-4EDF-AB17-185F0BB3D5C9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -451,14 +452,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -470,13 +471,15 @@
     <col min="5" max="5" width="18.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="16" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" style="2" customWidth="1"/>
     <col min="10" max="11" width="24.42578125" style="2" customWidth="1"/>
-    <col min="12" max="1025" width="9.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" style="2" customWidth="1"/>
+    <col min="13" max="14" width="18.28515625" style="2" customWidth="1"/>
+    <col min="15" max="1025" width="9.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -491,7 +494,7 @@
       <c r="L1" s="7"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -504,7 +507,8 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="6"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
